--- a/biology/Écologie/Productivité_secondaire/Productivité_secondaire.xlsx
+++ b/biology/Écologie/Productivité_secondaire/Productivité_secondaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Productivit%C3%A9_secondaire</t>
+          <t>Productivité_secondaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La productivité secondaire est définie comme le taux auquel les consommateurs d'un écosystème (herbivores, carnivores) convertissent l'énergie chimique de leur nourriture en leur propre biomasse.
 Au sein d'une chaine alimentaire, la productivité décline fortement à chaque transfert d'énergie entre les différents niveaux de la hiérarchie trophique, principalement du fait de la dissipation d'une partie de l'énergie chimique en chaleur. 
